--- a/WatchList.xlsx
+++ b/WatchList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serendipaty\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20780480-B521-45B0-8F8F-DE84154B670F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159A45F2-D468-4B43-9DEA-208567FAC45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,64 +34,64 @@
     <t>percentage_return</t>
   </si>
   <si>
-    <t>IRFC.NS</t>
-  </si>
-  <si>
-    <t>RECLTD.NS</t>
-  </si>
-  <si>
-    <t>PFC.NS</t>
-  </si>
-  <si>
-    <t>UCOBANK.NS</t>
-  </si>
-  <si>
-    <t>PSB.NS</t>
-  </si>
-  <si>
-    <t>MAHABANK.NS</t>
-  </si>
-  <si>
-    <t>CENTRALBK.NS</t>
-  </si>
-  <si>
-    <t>IOB.NS</t>
-  </si>
-  <si>
-    <t>UNIONBANK.NS</t>
-  </si>
-  <si>
-    <t>LINDEINDIA.NS</t>
-  </si>
-  <si>
-    <t>SUPREMEIND.NS</t>
-  </si>
-  <si>
-    <t>GICRE.NS</t>
-  </si>
-  <si>
-    <t>PNB.NS</t>
-  </si>
-  <si>
-    <t>INDIANB.NS</t>
-  </si>
-  <si>
-    <t>POLICYBZR.NS</t>
-  </si>
-  <si>
-    <t>POLYCAB.NS</t>
-  </si>
-  <si>
-    <t>KPITTECH.NS</t>
-  </si>
-  <si>
-    <t>L&amp;TFH.NS</t>
-  </si>
-  <si>
-    <t>OIL.NS</t>
-  </si>
-  <si>
-    <t>PERSISTENT.NS</t>
+    <t>PARASPETRO.NS</t>
+  </si>
+  <si>
+    <t>JAIBALAJI.NS</t>
+  </si>
+  <si>
+    <t>POCL.NS</t>
+  </si>
+  <si>
+    <t>WSI.NS</t>
+  </si>
+  <si>
+    <t>FACT.NS</t>
+  </si>
+  <si>
+    <t>GEEKAYWIRE.NS</t>
+  </si>
+  <si>
+    <t>SAKAR.NS</t>
+  </si>
+  <si>
+    <t>JINDALSAW.NS</t>
+  </si>
+  <si>
+    <t>PRESSMN.NS</t>
+  </si>
+  <si>
+    <t>NDLVENTURE.NS</t>
+  </si>
+  <si>
+    <t>TITAGARH.NS</t>
+  </si>
+  <si>
+    <t>APOLLO.NS</t>
+  </si>
+  <si>
+    <t>ASMS.NS</t>
+  </si>
+  <si>
+    <t>FOCUS.NS</t>
+  </si>
+  <si>
+    <t>JWL.NS</t>
+  </si>
+  <si>
+    <t>AURIONPRO.NS</t>
+  </si>
+  <si>
+    <t>JITFINFRA.NS</t>
+  </si>
+  <si>
+    <t>RVNL.NS</t>
+  </si>
+  <si>
+    <t>NUCLEUS.NS</t>
+  </si>
+  <si>
+    <t>SUZLON.NS</t>
   </si>
 </sst>
 </file>
@@ -107,6 +107,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -147,12 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,9 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -484,283 +482,283 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
-        <v>21.79</v>
-      </c>
-      <c r="C2" s="2">
-        <v>72.95</v>
-      </c>
-      <c r="D2" s="2">
-        <v>234.81</v>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>2.35</v>
+      </c>
+      <c r="D2">
+        <v>2250</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>92.01</v>
-      </c>
-      <c r="C3" s="2">
-        <v>282.85000000000002</v>
-      </c>
-      <c r="D3" s="2">
-        <v>207.4</v>
+      <c r="B3">
+        <v>43.6</v>
+      </c>
+      <c r="C3">
+        <v>557.4</v>
+      </c>
+      <c r="D3">
+        <v>1178.44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>84.98</v>
-      </c>
-      <c r="C4" s="2">
-        <v>242.2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>185.02</v>
+      <c r="B4">
+        <v>60.65</v>
+      </c>
+      <c r="C4">
+        <v>426.75</v>
+      </c>
+      <c r="D4">
+        <v>603.66</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
-        <v>13.7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>37.450000000000003</v>
-      </c>
-      <c r="D5" s="2">
-        <v>173.36</v>
+      <c r="B5">
+        <v>15.1</v>
+      </c>
+      <c r="C5">
+        <v>100.8</v>
+      </c>
+      <c r="D5">
+        <v>567.54999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
-        <v>16.260000000000002</v>
-      </c>
-      <c r="C6" s="2">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="D6" s="2">
-        <v>144.21</v>
+      <c r="B6">
+        <v>121.57</v>
+      </c>
+      <c r="C6">
+        <v>744.65</v>
+      </c>
+      <c r="D6">
+        <v>512.54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
-        <v>18.53</v>
-      </c>
-      <c r="C7" s="2">
-        <v>41.35</v>
-      </c>
-      <c r="D7" s="2">
-        <v>123.13</v>
+      <c r="B7">
+        <v>12.96</v>
+      </c>
+      <c r="C7">
+        <v>77</v>
+      </c>
+      <c r="D7">
+        <v>494.2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
-        <v>20.3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>43.15</v>
-      </c>
-      <c r="D8" s="2">
-        <v>112.56</v>
+      <c r="B8">
+        <v>56.9</v>
+      </c>
+      <c r="C8">
+        <v>336.65</v>
+      </c>
+      <c r="D8">
+        <v>491.65</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
-        <v>18.75</v>
-      </c>
-      <c r="C9" s="2">
-        <v>39.1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>108.53</v>
+      <c r="B9">
+        <v>78.69</v>
+      </c>
+      <c r="C9">
+        <v>434.85</v>
+      </c>
+      <c r="D9">
+        <v>452.59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
-        <v>50.21</v>
-      </c>
-      <c r="C10" s="2">
-        <v>103.25</v>
-      </c>
-      <c r="D10" s="2">
-        <v>105.64</v>
+      <c r="B10">
+        <v>48.35</v>
+      </c>
+      <c r="C10">
+        <v>266.45</v>
+      </c>
+      <c r="D10">
+        <v>451.09</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
-        <v>3009.68</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5956.15</v>
-      </c>
-      <c r="D11" s="2">
-        <v>97.9</v>
+      <c r="B11">
+        <v>26.57</v>
+      </c>
+      <c r="C11">
+        <v>140</v>
+      </c>
+      <c r="D11">
+        <v>426.9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2">
-        <v>2263.14</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4476.05</v>
-      </c>
-      <c r="D12" s="2">
-        <v>97.78</v>
+      <c r="B12">
+        <v>153.19999999999999</v>
+      </c>
+      <c r="C12">
+        <v>761.7</v>
+      </c>
+      <c r="D12">
+        <v>397.19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2">
-        <v>118.8</v>
-      </c>
-      <c r="C13" s="2">
-        <v>227.65</v>
-      </c>
-      <c r="D13" s="2">
-        <v>91.63</v>
+      <c r="B13">
+        <v>21.52</v>
+      </c>
+      <c r="C13">
+        <v>98.3</v>
+      </c>
+      <c r="D13">
+        <v>356.78</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
-        <v>38.75</v>
-      </c>
-      <c r="C14" s="2">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="D14" s="2">
-        <v>88.13</v>
+      <c r="B14">
+        <v>3.6</v>
+      </c>
+      <c r="C14">
+        <v>15.45</v>
+      </c>
+      <c r="D14">
+        <v>329.17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2">
-        <v>237.28</v>
-      </c>
-      <c r="C15" s="2">
-        <v>431</v>
-      </c>
-      <c r="D15" s="2">
-        <v>81.650000000000006</v>
+      <c r="B15">
+        <v>42.58</v>
+      </c>
+      <c r="C15">
+        <v>179.9</v>
+      </c>
+      <c r="D15">
+        <v>322.45999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2">
-        <v>388.1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>702.5</v>
-      </c>
-      <c r="D16" s="2">
-        <v>81.010000000000005</v>
+      <c r="B16">
+        <v>72.45</v>
+      </c>
+      <c r="C16">
+        <v>306</v>
+      </c>
+      <c r="D16">
+        <v>322.33999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2">
-        <v>2794.28</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4900.6499999999996</v>
-      </c>
-      <c r="D17" s="2">
-        <v>75.38</v>
+      <c r="B17">
+        <v>391.95</v>
+      </c>
+      <c r="C17">
+        <v>1560</v>
+      </c>
+      <c r="D17">
+        <v>298.01</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2">
-        <v>705.75</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1213.8499999999999</v>
-      </c>
-      <c r="D18" s="2">
-        <v>71.989999999999995</v>
+      <c r="B18">
+        <v>122</v>
+      </c>
+      <c r="C18">
+        <v>479.6</v>
+      </c>
+      <c r="D18">
+        <v>293.11</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2">
-        <v>78.19</v>
-      </c>
-      <c r="C19" s="2">
-        <v>131.85</v>
-      </c>
-      <c r="D19" s="2">
-        <v>68.63</v>
+      <c r="B19">
+        <v>38.92</v>
+      </c>
+      <c r="C19">
+        <v>153</v>
+      </c>
+      <c r="D19">
+        <v>293.07</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2">
-        <v>179.46</v>
-      </c>
-      <c r="C20" s="2">
-        <v>301.7</v>
-      </c>
-      <c r="D20" s="2">
-        <v>68.11</v>
+      <c r="B20">
+        <v>386.09</v>
+      </c>
+      <c r="C20">
+        <v>1516.65</v>
+      </c>
+      <c r="D20">
+        <v>292.82</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2">
-        <v>3721</v>
-      </c>
-      <c r="C21" s="2">
-        <v>6211</v>
-      </c>
-      <c r="D21" s="2">
-        <v>66.92</v>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>31.3</v>
+      </c>
+      <c r="D21">
+        <v>291.25</v>
       </c>
     </row>
   </sheetData>
